--- a/Random_Forest/Location_Choice_Reformat_Output.xlsx
+++ b/Random_Forest/Location_Choice_Reformat_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\Random_Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7B6EADDE-D5DD-47CA-97EA-B9D2BF95F101}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{61CF45B4-9F72-4366-BA10-319B0704D3DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Labels</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Series</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -522,9 +528,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,53 +753,53 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.40165770609318902</c:v>
+                  <c:v>0.46027479091995199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45739247311827902</c:v>
+                  <c:v>0.453703703703703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40913978494623598</c:v>
+                  <c:v>0.46311230585424101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45492831541218598</c:v>
+                  <c:v>0.45676523297491001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45376344086021497</c:v>
+                  <c:v>0.466547192353643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45237455197132598</c:v>
+                  <c:v>0.45728793309438398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46393369175627203</c:v>
+                  <c:v>0.46049880525686898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46330645161290301</c:v>
+                  <c:v>0.457959976105137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4584229390681</c:v>
+                  <c:v>0.460125448028673</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.453315412186379</c:v>
+                  <c:v>0.45198626045400198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46025985663082403</c:v>
+                  <c:v>0.46796594982078799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46025985663082403</c:v>
+                  <c:v>0.46206690561529201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45470430107526799</c:v>
+                  <c:v>0.46400836320191102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45931899641577001</c:v>
+                  <c:v>0.46273894862604498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB10-455E-9A21-2614F6BC4AF4}"/>
+              <c16:uniqueId val="{00000000-90F1-42B0-84C5-46B9A324E43B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -935,53 +942,53 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.26936181605090398</c:v>
+                  <c:v>0.33304838379998503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38190303498930001</c:v>
+                  <c:v>0.38184940904589698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29906270475352198</c:v>
+                  <c:v>0.33670326282041602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.382283508568243</c:v>
+                  <c:v>0.38108174315914201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34038986621175599</c:v>
+                  <c:v>0.34507419376277698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.380327013471432</c:v>
+                  <c:v>0.38276055857282998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.345244184344148</c:v>
+                  <c:v>0.349866595792032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38523304868291203</c:v>
+                  <c:v>0.38227314911854599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34805699657697697</c:v>
+                  <c:v>0.35168098676464998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.380074660888014</c:v>
+                  <c:v>0.38004534996948103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35238745010560302</c:v>
+                  <c:v>0.35446844689811702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38353775952213698</c:v>
+                  <c:v>0.38483228933256602</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35021422902798499</c:v>
+                  <c:v>0.35315670311293701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38379555653039799</c:v>
+                  <c:v>0.38198479059239898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB10-455E-9A21-2614F6BC4AF4}"/>
+              <c16:uniqueId val="{00000001-90F1-42B0-84C5-46B9A324E43B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -996,11 +1003,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="556519888"/>
-        <c:axId val="556520216"/>
+        <c:axId val="577410688"/>
+        <c:axId val="577409704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="556519888"/>
+        <c:axId val="577410688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556520216"/>
+        <c:crossAx val="577409704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="556520216"/>
+        <c:axId val="577409704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556519888"/>
+        <c:crossAx val="577410688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,7 +1224,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>AveProb</a:t>
+              <a:t>Accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1230,26 +1237,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1258,16 +1245,100 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Closest</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Location_Choice_Reformat_Output!$A$2,Location_Choice_Reformat_Output!$A$4,Location_Choice_Reformat_Output!$A$6,Location_Choice_Reformat_Output!$A$8,Location_Choice_Reformat_Output!$A$10,Location_Choice_Reformat_Output!$A$12,Location_Choice_Reformat_Output!$A$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Location_Choice_Reformat_Output!$D$2,Location_Choice_Reformat_Output!$D$4,Location_Choice_Reformat_Output!$D$6,Location_Choice_Reformat_Output!$D$8,Location_Choice_Reformat_Output!$D$10,Location_Choice_Reformat_Output!$D$12,Location_Choice_Reformat_Output!$D$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.46027479091995199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46311230585424101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.466547192353643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46049880525686898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.460125448028673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46796594982078799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46400836320191102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FF67-4A5D-A666-58977ACE3C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Closest + Distances</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1304,30 +1375,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Location_Choice_Reformat_Output!$E$3,Location_Choice_Reformat_Output!$E$5,Location_Choice_Reformat_Output!$E$7,Location_Choice_Reformat_Output!$E$9,Location_Choice_Reformat_Output!$E$11,Location_Choice_Reformat_Output!$E$13,Location_Choice_Reformat_Output!$E$15)</c:f>
+              <c:f>(Location_Choice_Reformat_Output!$D$3,Location_Choice_Reformat_Output!$D$5,Location_Choice_Reformat_Output!$D$7,Location_Choice_Reformat_Output!$D$9,Location_Choice_Reformat_Output!$D$11,Location_Choice_Reformat_Output!$D$13,Location_Choice_Reformat_Output!$D$15)</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.38190303498930001</c:v>
+                  <c:v>0.453703703703703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.382283508568243</c:v>
+                  <c:v>0.45676523297491001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.380327013471432</c:v>
+                  <c:v>0.45728793309438398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38523304868291203</c:v>
+                  <c:v>0.457959976105137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.380074660888014</c:v>
+                  <c:v>0.45198626045400198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38353775952213698</c:v>
+                  <c:v>0.46206690561529201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38379555653039799</c:v>
+                  <c:v>0.46273894862604498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,7 +1406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42BF-4951-9CA5-5C5637F5930C}"/>
+              <c16:uniqueId val="{00000008-FF67-4A5D-A666-58977ACE3C39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1347,13 +1418,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="621062624"/>
-        <c:axId val="621006536"/>
+        <c:axId val="561863056"/>
+        <c:axId val="561863384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="621062624"/>
+        <c:axId val="561863056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1408,12 +1481,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621006536"/>
+        <c:crossAx val="561863384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="621006536"/>
+        <c:axId val="561863384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,10 +1543,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621062624"/>
+        <c:crossAx val="561863056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1481,33 +1558,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1561,7 +1637,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Accuracy</a:t>
+              <a:t>AveProb</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1574,26 +1650,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1602,16 +1658,17 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Closest</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1648,30 +1705,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Location_Choice_Reformat_Output!$D$2,Location_Choice_Reformat_Output!$D$4,Location_Choice_Reformat_Output!$D$6,Location_Choice_Reformat_Output!$D$8,Location_Choice_Reformat_Output!$D$10,Location_Choice_Reformat_Output!$D$12,Location_Choice_Reformat_Output!$D$14)</c:f>
+              <c:f>(Location_Choice_Reformat_Output!$E$2,Location_Choice_Reformat_Output!$E$4,Location_Choice_Reformat_Output!$E$6,Location_Choice_Reformat_Output!$E$8,Location_Choice_Reformat_Output!$E$10,Location_Choice_Reformat_Output!$E$12,Location_Choice_Reformat_Output!$E$14)</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.40165770609318902</c:v>
+                  <c:v>0.33304838379998503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40913978494623598</c:v>
+                  <c:v>0.33670326282041602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45376344086021497</c:v>
+                  <c:v>0.34507419376277698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46393369175627203</c:v>
+                  <c:v>0.349866595792032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4584229390681</c:v>
+                  <c:v>0.35168098676464998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46025985663082403</c:v>
+                  <c:v>0.35446844689811702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45470430107526799</c:v>
+                  <c:v>0.35315670311293701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1736,90 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6344-47BB-9EC3-D8E6F0479BD5}"/>
+              <c16:uniqueId val="{00000000-3801-48ED-94EA-E916E33556C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Closest + Distances</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Location_Choice_Reformat_Output!$A$3,Location_Choice_Reformat_Output!$A$5,Location_Choice_Reformat_Output!$A$7,Location_Choice_Reformat_Output!$A$9,Location_Choice_Reformat_Output!$A$11,Location_Choice_Reformat_Output!$A$13,Location_Choice_Reformat_Output!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Location_Choice_Reformat_Output!$E$3,Location_Choice_Reformat_Output!$E$5,Location_Choice_Reformat_Output!$E$7,Location_Choice_Reformat_Output!$E$9,Location_Choice_Reformat_Output!$E$11,Location_Choice_Reformat_Output!$E$13,Location_Choice_Reformat_Output!$E$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.38184940904589698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38108174315914201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38276055857282998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38227314911854599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38004534996948103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38483228933256602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38198479059239898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3801-48ED-94EA-E916E33556C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1691,13 +1831,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556510704"/>
-        <c:axId val="556505128"/>
+        <c:axId val="561863056"/>
+        <c:axId val="561863384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556510704"/>
+        <c:axId val="561863056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1752,12 +1894,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556505128"/>
+        <c:crossAx val="561863384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556505128"/>
+        <c:axId val="561863384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,10 +1956,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556510704"/>
+        <c:crossAx val="561863056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1825,33 +1971,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1871,86 +2016,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2493,1059 +2558,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>136524</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A122A13F-F2AD-4C76-B61E-59E33BC4F447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92AA181-3045-4EA5-87D8-36CCF05334DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,29 +2598,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D190C7EF-F136-4C1A-A031-E58C8972F1C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CBD789-0D5C-48C4-8B4C-8978180EB2FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3603,23 +2634,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFFD337-FF73-4661-AB57-0BF407ED3913}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FDCEEF-D0E2-4501-92C6-DBB3F6A0BC1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3939,15 +2970,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3963,8 +2994,12 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3976,13 +3011,19 @@
         <v>CL1</v>
       </c>
       <c r="D2" s="1">
-        <v>0.40165770609318902</v>
+        <v>0.46027479091995199</v>
       </c>
       <c r="E2" s="1">
-        <v>0.26936181605090398</v>
+        <v>0.33304838379998503</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3994,13 +3035,19 @@
         <v>CL1 + D</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45739247311827902</v>
+        <v>0.453703703703703</v>
       </c>
       <c r="E3" s="1">
-        <v>0.38190303498930001</v>
+        <v>0.38184940904589698</v>
+      </c>
+      <c r="G3">
+        <v>0.39837216248506502</v>
+      </c>
+      <c r="H3">
+        <v>0.25615279885641901</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4012,13 +3059,19 @@
         <v>CL2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.40913978494623598</v>
+        <v>0.46311230585424101</v>
       </c>
       <c r="E4" s="1">
-        <v>0.29906270475352198</v>
+        <v>0.33670326282041602</v>
+      </c>
+      <c r="G4">
+        <v>0.403076463560334</v>
+      </c>
+      <c r="H4">
+        <v>0.25663910125261602</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4030,13 +3083,19 @@
         <v>CL2 + D</v>
       </c>
       <c r="D5" s="1">
-        <v>0.45492831541218598</v>
+        <v>0.45676523297491001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.382283508568243</v>
+        <v>0.38108174315914201</v>
+      </c>
+      <c r="G5">
+        <v>0.40247909199522103</v>
+      </c>
+      <c r="H5">
+        <v>0.25688620681101199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4048,13 +3107,19 @@
         <v>CL3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.45376344086021497</v>
+        <v>0.466547192353643</v>
       </c>
       <c r="E6" s="1">
-        <v>0.34038986621175599</v>
+        <v>0.34507419376277698</v>
+      </c>
+      <c r="G6">
+        <v>0.41002090800477897</v>
+      </c>
+      <c r="H6">
+        <v>0.25783823942296602</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4066,13 +3131,19 @@
         <v>CL3 + D</v>
       </c>
       <c r="D7" s="1">
-        <v>0.45237455197132598</v>
+        <v>0.45728793309438398</v>
       </c>
       <c r="E7" s="1">
-        <v>0.380327013471432</v>
+        <v>0.38276055857282998</v>
+      </c>
+      <c r="G7">
+        <v>0.40905017921146902</v>
+      </c>
+      <c r="H7">
+        <v>0.257465774523922</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4084,13 +3155,21 @@
         <v>CL4</v>
       </c>
       <c r="D8" s="1">
-        <v>0.46393369175627203</v>
+        <v>0.46049880525686898</v>
       </c>
       <c r="E8" s="1">
-        <v>0.345244184344148</v>
+        <v>0.349866595792032</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(G3:G7)</f>
+        <v>0.40459976105137363</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(H3:H7)</f>
+        <v>0.25699642417338703</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4102,13 +3181,13 @@
         <v>CL4 + D</v>
       </c>
       <c r="D9" s="1">
-        <v>0.46330645161290301</v>
+        <v>0.457959976105137</v>
       </c>
       <c r="E9" s="1">
-        <v>0.38523304868291203</v>
+        <v>0.38227314911854599</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4120,13 +3199,13 @@
         <v>CL5</v>
       </c>
       <c r="D10" s="1">
-        <v>0.4584229390681</v>
+        <v>0.460125448028673</v>
       </c>
       <c r="E10" s="1">
-        <v>0.34805699657697697</v>
+        <v>0.35168098676464998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4138,13 +3217,13 @@
         <v>CL5 + D</v>
       </c>
       <c r="D11" s="1">
-        <v>0.453315412186379</v>
+        <v>0.45198626045400198</v>
       </c>
       <c r="E11" s="1">
-        <v>0.380074660888014</v>
+        <v>0.38004534996948103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4156,13 +3235,13 @@
         <v>CL6</v>
       </c>
       <c r="D12" s="1">
-        <v>0.46025985663082403</v>
+        <v>0.46796594982078799</v>
       </c>
       <c r="E12" s="1">
-        <v>0.35238745010560302</v>
+        <v>0.35446844689811702</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4174,13 +3253,13 @@
         <v>CL6 + D</v>
       </c>
       <c r="D13" s="1">
-        <v>0.46025985663082403</v>
+        <v>0.46206690561529201</v>
       </c>
       <c r="E13" s="1">
-        <v>0.38353775952213698</v>
+        <v>0.38483228933256602</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -4192,13 +3271,13 @@
         <v>CL7</v>
       </c>
       <c r="D14" s="1">
-        <v>0.45470430107526799</v>
+        <v>0.46400836320191102</v>
       </c>
       <c r="E14" s="1">
-        <v>0.35021422902798499</v>
+        <v>0.35315670311293701</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -4210,13 +3289,16 @@
         <v>CL7 + D</v>
       </c>
       <c r="D15" s="1">
-        <v>0.45931899641577001</v>
+        <v>0.46273894862604498</v>
       </c>
       <c r="E15" s="1">
-        <v>0.38379555653039799</v>
+        <v>0.38198479059239898</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <conditionalFormatting sqref="D2:D15">
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Random_Forest/Location_Choice_Reformat_Output.xlsx
+++ b/Random_Forest/Location_Choice_Reformat_Output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\Random_Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{61CF45B4-9F72-4366-BA10-319B0704D3DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58ABB01-6106-4460-97DC-BE9EAAE7949D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location_Choice_Reformat_Output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -2969,7 +2977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Random_Forest/Location_Choice_Reformat_Output.xlsx
+++ b/Random_Forest/Location_Choice_Reformat_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\Random_Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58ABB01-6106-4460-97DC-BE9EAAE7949D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0181D7-BF51-49DF-AFDA-D349497B5961}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>AveProb</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>APO</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AveProb</c:v>
+                  <c:v>APO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1645,7 +1645,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>AveProb</a:t>
+              <a:t>APO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2981,7 +2981,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2994,16 +2994,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -3025,10 +3025,10 @@
         <v>0.33304838379998503</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
